--- a/biology/Zoologie/Cyphoderus/Cyphoderus.xlsx
+++ b/biology/Zoologie/Cyphoderus/Cyphoderus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyphoderus est un genre de collemboles de la famille des Lepidocyrtidae. Il comprend une soixantaine d'espèces réparties dans le monde entier. Ce sont des commensaux d'Hyménoptères  sociaux et de termites, comme Cyphoderus albinus qui se retrouve parfois en grand nombre dans les fourmilières européennes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyphoderus est un genre de collemboles de la famille des Lepidocyrtidae. Il comprend une soixantaine d'espèces réparties dans le monde entier. Ce sont des commensaux d'Hyménoptères  sociaux et de termites, comme Cyphoderus albinus qui se retrouve parfois en grand nombre dans les fourmilières européennes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Checklist of the Collembola of the World (version du 26 août 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Checklist of the Collembola of the World (version du 26 août 2019) :
 Cyphoderus adelaideae Womersley, 1934
 Cyphoderus affinis Giard, 1895
 Cyphoderus africanus Womersley, 1929
@@ -610,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nicolet, 1842 : Recherches pour Servir à l'Histoire des Podurelles. Nouvelles Mémoires Helvétique Science Naturelle, vol. 6, p. 1-88 (texte intégral).</t>
         </is>
